--- a/xls/box-blocks_world-colin2.xlsx
+++ b/xls/box-blocks_world-colin2.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+  <si>
+    <t>f-max</t>
+  </si>
   <si>
     <t>Quality</t>
   </si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>1.00</t>
+  </si>
+  <si>
+    <t>Tool</t>
   </si>
   <si>
     <t>O</t>
@@ -432,14 +438,14 @@
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -447,41 +453,48 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -510,7 +523,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -539,7 +552,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -568,7 +581,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -597,7 +610,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -626,7 +639,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -655,7 +668,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -684,7 +697,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -713,7 +726,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -724,7 +737,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -751,19 +764,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -773,9 +792,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -785,9 +806,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -797,9 +820,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -809,11 +834,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -823,9 +848,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -835,9 +862,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -847,9 +876,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -859,11 +890,11 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -873,9 +904,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -885,9 +918,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -897,9 +932,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13">
         <v>28</v>
@@ -909,11 +946,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -923,9 +960,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -935,9 +974,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -947,9 +988,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -959,11 +1002,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -973,9 +1016,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -985,9 +1030,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -997,9 +1044,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1009,11 +1058,11 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1023,9 +1072,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1035,9 +1086,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -1047,9 +1100,11 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -1059,11 +1114,11 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1073,9 +1128,11 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1085,9 +1142,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1097,9 +1156,11 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1109,11 +1170,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1123,9 +1184,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -1135,9 +1198,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -1147,9 +1212,11 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -1159,11 +1226,11 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -1173,11 +1240,11 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -1187,16 +1254,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>